--- a/bom-samples/file_2.xlsx
+++ b/bom-samples/file_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KevinHarvard\OneDrive - Butcher Power Products\Desktop\Orders\BOM Consolidator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rachel\Projects\BomItemConsolidater\bom-samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6750CE9C-61DD-4D32-95F9-E18CD1DF0415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F6A0DAB-6059-4510-8AE3-64436140D2DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18435" yWindow="2925" windowWidth="25545" windowHeight="15435" tabRatio="483" xr2:uid="{C7D1D9F8-0418-4686-B826-B453F2DDAB5F}"/>
+    <workbookView xWindow="-23250" yWindow="7050" windowWidth="18660" windowHeight="13170" tabRatio="483" xr2:uid="{C7D1D9F8-0418-4686-B826-B453F2DDAB5F}"/>
   </bookViews>
   <sheets>
     <sheet name="file_2" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="32">
   <si>
     <t>BILL OF MATERIAL</t>
   </si>
@@ -127,6 +127,12 @@
   </si>
   <si>
     <t>GD</t>
+  </si>
+  <si>
+    <t>NEW</t>
+  </si>
+  <si>
+    <t>NEW2</t>
   </si>
 </sst>
 </file>
@@ -662,8 +668,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -724,8 +730,8 @@
       <c r="B4" s="8">
         <v>8</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>15</v>
+      <c r="C4" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>12</v>
@@ -742,8 +748,8 @@
       <c r="B5" s="8">
         <v>2</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>15</v>
+      <c r="C5" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>13</v>
@@ -792,11 +798,11 @@
       <c r="B8" s="8">
         <v>5</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>15</v>
+      <c r="C8" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>22</v>
@@ -810,8 +816,8 @@
       <c r="B9" s="8">
         <v>1</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>15</v>
+      <c r="C9" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>12</v>
@@ -828,8 +834,8 @@
       <c r="B10" s="8">
         <v>7</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>15</v>
+      <c r="C10" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>13</v>
@@ -848,8 +854,8 @@
       <c r="B11" s="8">
         <v>4</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>15</v>
+      <c r="C11" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>14</v>
@@ -898,8 +904,8 @@
       <c r="B14" s="8">
         <v>3</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>15</v>
+      <c r="C14" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>11</v>
@@ -918,11 +924,11 @@
       <c r="B15" s="8">
         <v>8</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>15</v>
+      <c r="C15" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>24</v>
@@ -938,8 +944,8 @@
       <c r="B16" s="8">
         <v>1</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>15</v>
+      <c r="C16" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>17</v>
@@ -988,8 +994,8 @@
       <c r="B19" s="8">
         <v>3</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>15</v>
+      <c r="C19" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>13</v>
@@ -1008,8 +1014,8 @@
       <c r="B20" s="8">
         <v>8</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>15</v>
+      <c r="C20" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>16</v>
